--- a/publipostage2/01zwdgr60/liste_essais_cliniques_identifies_01zwdgr60.xlsx
+++ b/publipostage2/01zwdgr60/liste_essais_cliniques_identifies_01zwdgr60.xlsx
@@ -49,10 +49,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>4: pas de résultats postés ni publiés</t>
-  </si>
-  <si>
-    <t>1: résultats postés ou publiés dans les 12 mois</t>
+    <t>4 : pas de résultats postés ni publiés</t>
+  </si>
+  <si>
+    <t>1 : résultats postés ou publiés dans les 12 mois</t>
   </si>
   <si>
     <t>NCT02592460</t>
